--- a/SYSINTG PROJECT.xlsx
+++ b/SYSINTG PROJECT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\SYSINTG S16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miggy\Documents\Maria Geraldine\AY 2016-2017 Term 3\SYSINTG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4632,7 +4632,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4677,8 +4677,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4955,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1058" sqref="D1058"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SYSINTG PROJECT.xlsx
+++ b/SYSINTG PROJECT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miggy\Documents\Maria Geraldine\AY 2016-2017 Term 3\SYSINTG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\SYSINTG S16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4632,7 +4632,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -4677,36 +4677,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4983,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1058" sqref="D1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
